--- a/teaching/traditional_assets/database/data/peru/peru_telecom_services.xlsx
+++ b/teaching/traditional_assets/database/data/peru/peru_telecom_services.xlsx
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0259</v>
+        <v>-0.0653</v>
       </c>
       <c r="G2">
-        <v>0.1535318647066257</v>
+        <v>0.1563593932322054</v>
       </c>
       <c r="H2">
-        <v>0.1535318647066257</v>
+        <v>0.1563593932322054</v>
       </c>
       <c r="I2">
-        <v>-0.06146432992672429</v>
+        <v>-0.02023604279761404</v>
       </c>
       <c r="J2">
-        <v>-0.06146432992672429</v>
+        <v>-0.02023604279761404</v>
       </c>
       <c r="K2">
-        <v>-344.3</v>
+        <v>-182.2</v>
       </c>
       <c r="L2">
-        <v>-0.1450233772798113</v>
+        <v>-0.0966373183409356</v>
       </c>
       <c r="M2">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
       <c r="N2">
-        <v>1.620307858493114e-05</v>
+        <v>2.001801621459313e-06</v>
       </c>
       <c r="O2">
-        <v>-5.22799883822248e-05</v>
+        <v>-1.097694840834248e-05</v>
       </c>
       <c r="P2">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
       <c r="Q2">
-        <v>1.620307858493114e-05</v>
+        <v>2.001801621459313e-06</v>
       </c>
       <c r="R2">
-        <v>-5.22799883822248e-05</v>
+        <v>-1.097694840834248e-05</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>133.3</v>
+        <v>149.9</v>
       </c>
       <c r="V2">
-        <v>0.11999279863174</v>
+        <v>0.1500350315283756</v>
       </c>
       <c r="W2">
-        <v>-0.1866326973113617</v>
+        <v>-0.1258808898714937</v>
       </c>
       <c r="X2">
-        <v>0.09432812299401083</v>
+        <v>0.06847942397093404</v>
       </c>
       <c r="Y2">
-        <v>-0.2809608203053725</v>
+        <v>-0.1943603138424277</v>
       </c>
       <c r="Z2">
-        <v>0.9883796065219076</v>
+        <v>0.7996894638093194</v>
       </c>
       <c r="AA2">
-        <v>-0.06075009022810846</v>
+        <v>-0.01618255021444641</v>
       </c>
       <c r="AB2">
-        <v>0.05720440070523451</v>
+        <v>0.04543403971331211</v>
       </c>
       <c r="AC2">
-        <v>-0.117954490933343</v>
+        <v>-0.06161658992775852</v>
       </c>
       <c r="AD2">
-        <v>1396.8</v>
+        <v>1363.1</v>
       </c>
       <c r="AE2">
-        <v>188.1123283951808</v>
+        <v>5.565175453107585</v>
       </c>
       <c r="AF2">
-        <v>1584.912328395181</v>
+        <v>1368.665175453107</v>
       </c>
       <c r="AG2">
-        <v>1451.612328395181</v>
+        <v>1218.765175453107</v>
       </c>
       <c r="AH2">
-        <v>0.5879164182540408</v>
+        <v>0.578040926373196</v>
       </c>
       <c r="AI2">
-        <v>0.5226744994418101</v>
+        <v>0.5365914697957068</v>
       </c>
       <c r="AJ2">
-        <v>0.566480134479696</v>
+        <v>0.5495217603586363</v>
       </c>
       <c r="AK2">
-        <v>0.5007265109489053</v>
+        <v>0.5076569703336705</v>
       </c>
       <c r="AL2">
-        <v>81.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="AM2">
-        <v>67.40000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="AN2">
-        <v>5.497048406139315</v>
+        <v>5.327522864066285</v>
       </c>
       <c r="AO2">
-        <v>-1.748473748473748</v>
+        <v>-0.5415549597855228</v>
       </c>
       <c r="AP2">
-        <v>5.712760048780719</v>
+        <v>4.763406454518515</v>
       </c>
       <c r="AQ2">
-        <v>-2.124629080118694</v>
+        <v>-0.7001733102253033</v>
       </c>
     </row>
     <row r="3">
@@ -722,43 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0259</v>
+        <v>-0.0653</v>
       </c>
       <c r="G3">
-        <v>0.1535318647066257</v>
+        <v>0.1563593932322054</v>
       </c>
       <c r="H3">
-        <v>0.1535318647066257</v>
+        <v>0.1563593932322054</v>
       </c>
       <c r="I3">
-        <v>-0.06146432992672429</v>
+        <v>-0.02023604279761404</v>
       </c>
       <c r="J3">
-        <v>-0.06146432992672429</v>
+        <v>-0.02023604279761404</v>
       </c>
       <c r="K3">
-        <v>-344.3</v>
+        <v>-182.2</v>
       </c>
       <c r="L3">
-        <v>-0.1450233772798113</v>
+        <v>-0.0966373183409356</v>
       </c>
       <c r="M3">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
       <c r="N3">
-        <v>1.620307858493114e-05</v>
+        <v>2.001801621459313e-06</v>
       </c>
       <c r="O3">
-        <v>-5.22799883822248e-05</v>
+        <v>-1.097694840834248e-05</v>
       </c>
       <c r="P3">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
       <c r="Q3">
-        <v>1.620307858493114e-05</v>
+        <v>2.001801621459313e-06</v>
       </c>
       <c r="R3">
-        <v>-5.22799883822248e-05</v>
+        <v>-1.097694840834248e-05</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>133.3</v>
+        <v>149.9</v>
       </c>
       <c r="V3">
-        <v>0.11999279863174</v>
+        <v>0.1500350315283756</v>
       </c>
       <c r="W3">
-        <v>-0.1866326973113617</v>
+        <v>-0.1258808898714937</v>
       </c>
       <c r="X3">
-        <v>0.09432812299401083</v>
+        <v>0.06847942397093404</v>
       </c>
       <c r="Y3">
-        <v>-0.2809608203053725</v>
+        <v>-0.1943603138424277</v>
       </c>
       <c r="Z3">
-        <v>0.9883796065219076</v>
+        <v>0.7996894638093194</v>
       </c>
       <c r="AA3">
-        <v>-0.06075009022810846</v>
+        <v>-0.01618255021444641</v>
       </c>
       <c r="AB3">
-        <v>0.05720440070523451</v>
+        <v>0.04543403971331211</v>
       </c>
       <c r="AC3">
-        <v>-0.117954490933343</v>
+        <v>-0.06161658992775852</v>
       </c>
       <c r="AD3">
-        <v>1396.8</v>
+        <v>1363.1</v>
       </c>
       <c r="AE3">
-        <v>188.1123283951808</v>
+        <v>5.565175453107585</v>
       </c>
       <c r="AF3">
-        <v>1584.912328395181</v>
+        <v>1368.665175453107</v>
       </c>
       <c r="AG3">
-        <v>1451.612328395181</v>
+        <v>1218.765175453107</v>
       </c>
       <c r="AH3">
-        <v>0.5879164182540408</v>
+        <v>0.578040926373196</v>
       </c>
       <c r="AI3">
-        <v>0.5226744994418101</v>
+        <v>0.5365914697957068</v>
       </c>
       <c r="AJ3">
-        <v>0.566480134479696</v>
+        <v>0.5495217603586363</v>
       </c>
       <c r="AK3">
-        <v>0.5007265109489053</v>
+        <v>0.5076569703336705</v>
       </c>
       <c r="AL3">
-        <v>81.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="AM3">
-        <v>67.40000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="AN3">
-        <v>5.497048406139315</v>
+        <v>5.327522864066285</v>
       </c>
       <c r="AO3">
-        <v>-1.748473748473748</v>
+        <v>-0.5415549597855228</v>
       </c>
       <c r="AP3">
-        <v>5.712760048780719</v>
+        <v>4.763406454518515</v>
       </c>
       <c r="AQ3">
-        <v>-2.124629080118694</v>
+        <v>-0.7001733102253033</v>
       </c>
     </row>
   </sheetData>
